--- a/dbInittool/excels/Photo.xlsx
+++ b/dbInittool/excels/Photo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\Reader\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B92C936-D41F-4AF8-8F20-609EBD8009AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F7567-D6B4-441F-BB35-010E0F71D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="-6435" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>photopass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -372,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -418,6 +426,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>456.78899999999999</v>
+      </c>
+      <c r="C3">
+        <v>35.677999999999997</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/Photo.xlsx
+++ b/dbInittool/excels/Photo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F7567-D6B4-441F-BB35-010E0F71D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF019DD-9D9F-4F0D-A27D-84B33FBB0633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4640" yWindow="2960" windowWidth="16200" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>pass2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -380,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -443,6 +451,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>34.722000000000001</v>
+      </c>
+      <c r="C4">
+        <v>137.71700000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/Photo.xlsx
+++ b/dbInittool/excels/Photo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF019DD-9D9F-4F0D-A27D-84B33FBB0633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D595F-FDFD-4B15-B919-B703FDD141D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="2960" windowWidth="16200" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="16200" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -40,30 +40,6 @@
   </si>
   <si>
     <t>visited</t>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>photopass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>photo2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pass2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>photo3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>apple.jpg</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -388,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -417,57 +393,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>123.456</v>
-      </c>
-      <c r="C2">
-        <v>123.789</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>456.78899999999999</v>
-      </c>
-      <c r="C3">
-        <v>35.677999999999997</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>34.722000000000001</v>
-      </c>
-      <c r="C4">
-        <v>137.71700000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
